--- a/Yoon/checklist.xlsx
+++ b/Yoon/checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤승재\OneDrive\바탕 화면\22여름pps\22-2_PPS_SLE\Yoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D805A9-2CE1-4756-9272-9425B29064BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA3BE70-1FC3-4850-9148-122DE2BE785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{629A98E4-F6CE-4389-B76F-64A6FE0F99EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{629A98E4-F6CE-4389-B76F-64A6FE0F99EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2523,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5CABF6-31F5-4BA9-942F-CE4479E1686A}">
   <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2912,6 +2912,9 @@
       <c r="C15" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D15">
+        <v>715</v>
+      </c>
       <c r="F15" s="4" t="s">
         <v>297</v>
       </c>
@@ -3051,6 +3054,9 @@
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D20">
+        <v>717</v>
+      </c>
       <c r="F20" s="4" t="s">
         <v>307</v>
       </c>
@@ -3077,6 +3083,9 @@
       <c r="C21" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D21">
+        <v>717</v>
+      </c>
       <c r="F21" s="4" t="s">
         <v>309</v>
       </c>
@@ -3102,6 +3111,9 @@
       </c>
       <c r="C22" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="D22">
+        <v>718</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>311</v>
@@ -5606,15 +5618,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007745BF2952DAD049A2621A067C8277B7" ma:contentTypeVersion="5" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="378f6c43abaaf72fcba69b6eb9f69a79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3b7a1947-f9fd-4834-88a6-b81ee9c92e59" xmlns:ns4="0579aae6-6b8d-4c65-aec4-ef6fce64dfed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb81b565963c5e4436498a5ac99ae73c" ns3:_="" ns4:_="">
     <xsd:import namespace="3b7a1947-f9fd-4834-88a6-b81ee9c92e59"/>
@@ -5785,6 +5788,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5792,14 +5804,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62AD2D07-5AEB-4E55-97AA-919C17AFDF89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DB90020-35DC-4849-BF53-9395E571A3B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5814,6 +5818,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62AD2D07-5AEB-4E55-97AA-919C17AFDF89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Yoon/checklist.xlsx
+++ b/Yoon/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤승재\OneDrive\바탕 화면\22여름pps\22-2_PPS_SLE\Yoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA3BE70-1FC3-4850-9148-122DE2BE785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F43B07-1BB5-42E1-A9C0-BE0117E4C67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{629A98E4-F6CE-4389-B76F-64A6FE0F99EF}"/>
   </bookViews>
@@ -2523,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5CABF6-31F5-4BA9-942F-CE4479E1686A}">
   <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3297,6 +3297,9 @@
       <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D29">
+        <v>725</v>
+      </c>
       <c r="F29" s="4" t="s">
         <v>325</v>
       </c>
@@ -3407,6 +3410,9 @@
       <c r="C33" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D33">
+        <v>725</v>
+      </c>
       <c r="F33" s="4" t="s">
         <v>333</v>
       </c>
@@ -3433,6 +3439,9 @@
       <c r="C34" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D34">
+        <v>725</v>
+      </c>
       <c r="F34" s="4" t="s">
         <v>335</v>
       </c>
@@ -3751,6 +3760,9 @@
       <c r="C46" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D46">
+        <v>725</v>
+      </c>
       <c r="F46" s="4" t="s">
         <v>359</v>
       </c>
@@ -3777,6 +3789,9 @@
       <c r="C47" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D47">
+        <v>725</v>
+      </c>
       <c r="F47" s="4" t="s">
         <v>361</v>
       </c>
@@ -3858,6 +3873,9 @@
       <c r="C50" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D50">
+        <v>729</v>
+      </c>
       <c r="F50" s="4" t="s">
         <v>367</v>
       </c>
@@ -3913,6 +3931,9 @@
       <c r="C52" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D52">
+        <v>729</v>
+      </c>
       <c r="F52" s="4" t="s">
         <v>371</v>
       </c>
@@ -3939,6 +3960,9 @@
       <c r="C53" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D53">
+        <v>729</v>
+      </c>
       <c r="F53" s="4" t="s">
         <v>373</v>
       </c>
@@ -4277,6 +4301,9 @@
       <c r="C66" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D66">
+        <v>729</v>
+      </c>
       <c r="F66" s="4" t="s">
         <v>399</v>
       </c>
@@ -4361,6 +4388,9 @@
       <c r="C69" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D69">
+        <v>730</v>
+      </c>
       <c r="F69" s="4" t="s">
         <v>405</v>
       </c>
@@ -4387,6 +4417,9 @@
       <c r="C70" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D70">
+        <v>730</v>
+      </c>
       <c r="F70" s="4" t="s">
         <v>407</v>
       </c>
@@ -4614,6 +4647,9 @@
       <c r="C77" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D77">
+        <v>730</v>
+      </c>
       <c r="F77" s="4" t="s">
         <v>421</v>
       </c>
@@ -4745,6 +4781,9 @@
       <c r="C81" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D81">
+        <v>730</v>
+      </c>
       <c r="F81" s="4" t="s">
         <v>429</v>
       </c>
@@ -4770,6 +4809,9 @@
       </c>
       <c r="C82" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="D82">
+        <v>730</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>431</v>

--- a/Yoon/checklist.xlsx
+++ b/Yoon/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤승재\OneDrive\바탕 화면\22여름pps\22-2_PPS_SLE\Yoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F43B07-1BB5-42E1-A9C0-BE0117E4C67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EB7E52-42D2-47F6-8FA7-1D06CA150BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{629A98E4-F6CE-4389-B76F-64A6FE0F99EF}"/>
   </bookViews>
@@ -2523,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5CABF6-31F5-4BA9-942F-CE4479E1686A}">
   <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4839,6 +4839,9 @@
       <c r="C83" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D83">
+        <v>730</v>
+      </c>
       <c r="F83" s="4" t="s">
         <v>433</v>
       </c>
@@ -5335,6 +5338,9 @@
       <c r="C106" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D106">
+        <v>730</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
@@ -5346,6 +5352,9 @@
       <c r="C107" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D107">
+        <v>730</v>
+      </c>
     </row>
     <row r="108" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
@@ -5356,6 +5365,9 @@
       </c>
       <c r="C108" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="D108">
+        <v>730</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -5660,6 +5672,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007745BF2952DAD049A2621A067C8277B7" ma:contentTypeVersion="5" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="378f6c43abaaf72fcba69b6eb9f69a79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3b7a1947-f9fd-4834-88a6-b81ee9c92e59" xmlns:ns4="0579aae6-6b8d-4c65-aec4-ef6fce64dfed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb81b565963c5e4436498a5ac99ae73c" ns3:_="" ns4:_="">
     <xsd:import namespace="3b7a1947-f9fd-4834-88a6-b81ee9c92e59"/>
@@ -5830,15 +5851,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5846,6 +5858,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62AD2D07-5AEB-4E55-97AA-919C17AFDF89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DB90020-35DC-4849-BF53-9395E571A3B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5860,14 +5880,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62AD2D07-5AEB-4E55-97AA-919C17AFDF89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Yoon/checklist.xlsx
+++ b/Yoon/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤승재\OneDrive\바탕 화면\22여름pps\22-2_PPS_SLE\Yoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EB7E52-42D2-47F6-8FA7-1D06CA150BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF588E32-A447-41E7-AEDA-0B56D95DCF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{629A98E4-F6CE-4389-B76F-64A6FE0F99EF}"/>
   </bookViews>
@@ -2523,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5CABF6-31F5-4BA9-942F-CE4479E1686A}">
   <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5391,6 +5391,9 @@
       <c r="C110" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D110">
+        <v>731</v>
+      </c>
     </row>
     <row r="111" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
@@ -5402,6 +5405,9 @@
       <c r="C111" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D111">
+        <v>731</v>
+      </c>
     </row>
     <row r="112" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -5580,6 +5586,9 @@
       </c>
       <c r="C127" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="D127">
+        <v>731</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -5672,15 +5681,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007745BF2952DAD049A2621A067C8277B7" ma:contentTypeVersion="5" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="378f6c43abaaf72fcba69b6eb9f69a79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3b7a1947-f9fd-4834-88a6-b81ee9c92e59" xmlns:ns4="0579aae6-6b8d-4c65-aec4-ef6fce64dfed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb81b565963c5e4436498a5ac99ae73c" ns3:_="" ns4:_="">
     <xsd:import namespace="3b7a1947-f9fd-4834-88a6-b81ee9c92e59"/>
@@ -5851,6 +5851,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5858,14 +5867,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62AD2D07-5AEB-4E55-97AA-919C17AFDF89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DB90020-35DC-4849-BF53-9395E571A3B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5880,6 +5881,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62AD2D07-5AEB-4E55-97AA-919C17AFDF89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Yoon/checklist.xlsx
+++ b/Yoon/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤승재\OneDrive\바탕 화면\22여름pps\22-2_PPS_SLE\Yoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF588E32-A447-41E7-AEDA-0B56D95DCF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4932E26-559D-434C-9C7D-EADF05AF0A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{629A98E4-F6CE-4389-B76F-64A6FE0F99EF}"/>
   </bookViews>
@@ -2523,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5CABF6-31F5-4BA9-942F-CE4479E1686A}">
   <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4894,6 +4894,9 @@
       <c r="C85" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D85">
+        <v>731</v>
+      </c>
       <c r="F85" s="4" t="s">
         <v>437</v>
       </c>
@@ -4920,6 +4923,9 @@
       <c r="C86" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D86">
+        <v>731</v>
+      </c>
       <c r="F86" s="4" t="s">
         <v>439</v>
       </c>
@@ -5419,6 +5425,9 @@
       <c r="C112" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D112">
+        <v>731</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
@@ -5565,6 +5574,9 @@
       <c r="C125" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D125">
+        <v>731</v>
+      </c>
     </row>
     <row r="126" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
@@ -5576,6 +5588,9 @@
       <c r="C126" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D126">
+        <v>731</v>
+      </c>
     </row>
     <row r="127" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
@@ -5601,8 +5616,11 @@
       <c r="C128" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>257</v>
       </c>
@@ -5612,8 +5630,11 @@
       <c r="C129" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>259</v>
       </c>
@@ -5624,7 +5645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>261</v>
       </c>
@@ -5635,7 +5656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>263</v>
       </c>
@@ -5646,7 +5667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>265</v>
       </c>
@@ -5657,7 +5678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>267</v>
       </c>
@@ -5681,6 +5702,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007745BF2952DAD049A2621A067C8277B7" ma:contentTypeVersion="5" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="378f6c43abaaf72fcba69b6eb9f69a79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3b7a1947-f9fd-4834-88a6-b81ee9c92e59" xmlns:ns4="0579aae6-6b8d-4c65-aec4-ef6fce64dfed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb81b565963c5e4436498a5ac99ae73c" ns3:_="" ns4:_="">
     <xsd:import namespace="3b7a1947-f9fd-4834-88a6-b81ee9c92e59"/>
@@ -5851,15 +5881,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5867,6 +5888,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62AD2D07-5AEB-4E55-97AA-919C17AFDF89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DB90020-35DC-4849-BF53-9395E571A3B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5881,14 +5910,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62AD2D07-5AEB-4E55-97AA-919C17AFDF89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Yoon/checklist.xlsx
+++ b/Yoon/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤승재\OneDrive\바탕 화면\22여름pps\22-2_PPS_SLE\Yoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4932E26-559D-434C-9C7D-EADF05AF0A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93340D8-9398-4699-941E-940523E95C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{629A98E4-F6CE-4389-B76F-64A6FE0F99EF}"/>
   </bookViews>
@@ -2523,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5CABF6-31F5-4BA9-942F-CE4479E1686A}">
   <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2539,6 +2539,9 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1">
+        <v>801</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>269</v>
       </c>
@@ -2591,6 +2594,9 @@
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>801</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>273</v>
       </c>
@@ -2617,6 +2623,9 @@
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>801</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>275</v>
       </c>
@@ -2860,6 +2869,9 @@
       <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D13">
+        <v>801</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>293</v>
       </c>
@@ -3141,6 +3153,9 @@
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D23">
+        <v>801</v>
+      </c>
       <c r="F23" s="4" t="s">
         <v>313</v>
       </c>
@@ -3167,6 +3182,9 @@
       <c r="C24" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D24">
+        <v>801</v>
+      </c>
       <c r="F24" s="4" t="s">
         <v>315</v>
       </c>
@@ -3193,6 +3211,9 @@
       <c r="C25" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D25">
+        <v>801</v>
+      </c>
       <c r="F25" s="4" t="s">
         <v>317</v>
       </c>
@@ -3271,6 +3292,9 @@
       <c r="C28" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D28">
+        <v>801</v>
+      </c>
       <c r="F28" s="4" t="s">
         <v>323</v>
       </c>
@@ -3381,6 +3405,9 @@
       <c r="C32" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D32">
+        <v>801</v>
+      </c>
       <c r="F32" s="4" t="s">
         <v>331</v>
       </c>
@@ -4359,6 +4386,9 @@
       <c r="C68" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D68">
+        <v>801</v>
+      </c>
       <c r="F68" s="4" t="s">
         <v>403</v>
       </c>
@@ -4868,6 +4898,9 @@
       <c r="C84" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D84">
+        <v>801</v>
+      </c>
       <c r="F84" s="4" t="s">
         <v>435</v>
       </c>
@@ -5644,6 +5677,9 @@
       <c r="C130" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D130">
+        <v>801</v>
+      </c>
     </row>
     <row r="131" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
@@ -5655,6 +5691,9 @@
       <c r="C131" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D131">
+        <v>801</v>
+      </c>
     </row>
     <row r="132" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
@@ -5665,6 +5704,9 @@
       </c>
       <c r="C132" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="D132">
+        <v>801</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -5702,15 +5744,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007745BF2952DAD049A2621A067C8277B7" ma:contentTypeVersion="5" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="378f6c43abaaf72fcba69b6eb9f69a79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3b7a1947-f9fd-4834-88a6-b81ee9c92e59" xmlns:ns4="0579aae6-6b8d-4c65-aec4-ef6fce64dfed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb81b565963c5e4436498a5ac99ae73c" ns3:_="" ns4:_="">
     <xsd:import namespace="3b7a1947-f9fd-4834-88a6-b81ee9c92e59"/>
@@ -5881,6 +5914,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5888,14 +5930,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62AD2D07-5AEB-4E55-97AA-919C17AFDF89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DB90020-35DC-4849-BF53-9395E571A3B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5910,6 +5944,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62AD2D07-5AEB-4E55-97AA-919C17AFDF89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Yoon/checklist.xlsx
+++ b/Yoon/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤승재\OneDrive\바탕 화면\22여름pps\22-2_PPS_SLE\Yoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93340D8-9398-4699-941E-940523E95C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3FF525-AAA0-43F6-899D-B4E458F815B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{629A98E4-F6CE-4389-B76F-64A6FE0F99EF}"/>
   </bookViews>
@@ -277,1795 +277,1797 @@
     <t>A040</t>
   </si>
   <si>
+    <t>A041</t>
+  </si>
+  <si>
+    <t>JadenCase 문자열 만들기</t>
+  </si>
+  <si>
+    <t>A042</t>
+  </si>
+  <si>
+    <t>Backspace String Compare</t>
+  </si>
+  <si>
+    <t>A043</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>A044</t>
+  </si>
+  <si>
+    <t>A045</t>
+  </si>
+  <si>
+    <t>단어 공부</t>
+  </si>
+  <si>
+    <t>A046</t>
+  </si>
+  <si>
+    <t>농구 경기</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>열개씩 끊어 출력하기</t>
+  </si>
+  <si>
+    <t>A048</t>
+  </si>
+  <si>
+    <t>그룹 단어 체커</t>
+  </si>
+  <si>
+    <t>A049</t>
+  </si>
+  <si>
+    <t>비밀번호 발음하기</t>
+  </si>
+  <si>
+    <t>A050</t>
+  </si>
+  <si>
+    <t>카이사르 암호</t>
+  </si>
+  <si>
+    <t>A051</t>
+  </si>
+  <si>
+    <t>다이얼</t>
+  </si>
+  <si>
+    <t>A052</t>
+  </si>
+  <si>
+    <t>OX퀴즈</t>
+  </si>
+  <si>
+    <t>A053</t>
+  </si>
+  <si>
+    <t>스택</t>
+  </si>
+  <si>
+    <t>A054</t>
+  </si>
+  <si>
+    <t>크레인 인형뽑기 게임</t>
+  </si>
+  <si>
+    <t>A055</t>
+  </si>
+  <si>
+    <t>Remove Outermost Parentheses</t>
+  </si>
+  <si>
+    <t>A056</t>
+  </si>
+  <si>
+    <t>Next Greater Element I</t>
+  </si>
+  <si>
+    <t>A057</t>
+  </si>
+  <si>
+    <t>쿠키 구입</t>
+  </si>
+  <si>
+    <t>A058</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>A059</t>
+  </si>
+  <si>
+    <t>시험 공부 (목록 중 3번)</t>
+  </si>
+  <si>
+    <t>A060</t>
+  </si>
+  <si>
+    <t>Baseball Game</t>
+  </si>
+  <si>
+    <t>A061</t>
+  </si>
+  <si>
+    <t>Excel Sheet Column Title</t>
+  </si>
+  <si>
+    <t>A062</t>
+  </si>
+  <si>
+    <t>2016년</t>
+  </si>
+  <si>
+    <t>A063</t>
+  </si>
+  <si>
+    <t>Add Binary</t>
+  </si>
+  <si>
+    <t>A064</t>
+  </si>
+  <si>
+    <t>Height Checker</t>
+  </si>
+  <si>
+    <t>A065</t>
+  </si>
+  <si>
+    <t>좌표 정렬하기</t>
+  </si>
+  <si>
+    <t>A066</t>
+  </si>
+  <si>
+    <t>소트인사이드</t>
+  </si>
+  <si>
+    <t>A067</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates In String</t>
+  </si>
+  <si>
+    <t>A068</t>
+  </si>
+  <si>
+    <t>큐 2</t>
+  </si>
+  <si>
+    <t>A069</t>
+  </si>
+  <si>
+    <t>요세푸스 문제 0</t>
+  </si>
+  <si>
+    <t>A070</t>
+  </si>
+  <si>
+    <t>카드2</t>
+  </si>
+  <si>
+    <t>A071</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>A072</t>
+  </si>
+  <si>
+    <t>Day of the Year</t>
+  </si>
+  <si>
+    <t>A073</t>
+  </si>
+  <si>
+    <t>Fizz Buzz</t>
+  </si>
+  <si>
+    <t>A074</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>A075</t>
+  </si>
+  <si>
+    <t>가장 큰 수</t>
+  </si>
+  <si>
+    <t>A076</t>
+  </si>
+  <si>
+    <t>염라대왕의 이름 정렬</t>
+  </si>
+  <si>
+    <t>A077</t>
+  </si>
+  <si>
+    <t>점수 계산</t>
+  </si>
+  <si>
+    <t>A078</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>A079</t>
+  </si>
+  <si>
+    <t>K번째수</t>
+  </si>
+  <si>
+    <t>A080</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>A081</t>
+  </si>
+  <si>
+    <t>N번째 큰 수</t>
+  </si>
+  <si>
+    <t>A082</t>
+  </si>
+  <si>
+    <t>나이순 정렬</t>
+  </si>
+  <si>
+    <t>A083</t>
+  </si>
+  <si>
+    <t>중복 빼고 정렬하기</t>
+  </si>
+  <si>
+    <t>A084</t>
+  </si>
+  <si>
+    <t>접미사 배열</t>
+  </si>
+  <si>
+    <t>A085</t>
+  </si>
+  <si>
+    <t>시리얼 번호</t>
+  </si>
+  <si>
+    <t>A086</t>
+  </si>
+  <si>
+    <t>숫자 놀이</t>
+  </si>
+  <si>
+    <t>A087</t>
+  </si>
+  <si>
+    <t>Maximum Units on a Truck</t>
+  </si>
+  <si>
+    <t>A088</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>A089</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>A090</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>A091</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>A092</t>
+  </si>
+  <si>
+    <t>Sort Array By Parity II</t>
+  </si>
+  <si>
+    <t>A093</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>A094</t>
+  </si>
+  <si>
+    <t>크로아티아 알파벳</t>
+  </si>
+  <si>
+    <t>A095</t>
+  </si>
+  <si>
+    <t>Valid Phone Numbers</t>
+  </si>
+  <si>
+    <t>A096</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>A097</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array is Sorted</t>
+  </si>
+  <si>
+    <t>A098</t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>A099</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>Range Sum of BST</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>Fair Candy Swap</t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>Transpose Matrix</t>
+  </si>
+  <si>
+    <t>A103</t>
+  </si>
+  <si>
+    <t>Unique Morse Code Words</t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t>욱제는 효도쟁이야!!</t>
+  </si>
+  <si>
+    <t>A105</t>
+  </si>
+  <si>
+    <t>분수찾기</t>
+  </si>
+  <si>
+    <t>A106</t>
+  </si>
+  <si>
+    <t>등장하지 않는 문자의 합</t>
+  </si>
+  <si>
+    <t>A107</t>
+  </si>
+  <si>
+    <t>쉽게 푸는 문제</t>
+  </si>
+  <si>
+    <t>A108</t>
+  </si>
+  <si>
+    <t>수 뒤집기</t>
+  </si>
+  <si>
+    <t>A109</t>
+  </si>
+  <si>
+    <t>벨트</t>
+  </si>
+  <si>
+    <t>A110</t>
+  </si>
+  <si>
+    <t>거스름돈</t>
+  </si>
+  <si>
+    <t>A111</t>
+  </si>
+  <si>
+    <t>3000번 버스</t>
+  </si>
+  <si>
+    <t>A112</t>
+  </si>
+  <si>
+    <t>기타줄</t>
+  </si>
+  <si>
+    <t>A113</t>
+  </si>
+  <si>
+    <t>연결 요소의 갯수</t>
+  </si>
+  <si>
+    <t>A114</t>
+  </si>
+  <si>
+    <t>Prime Arrangements</t>
+  </si>
+  <si>
+    <t>A115</t>
+  </si>
+  <si>
+    <t>Maximum Number of Balloons</t>
+  </si>
+  <si>
+    <t>A116</t>
+  </si>
+  <si>
+    <t>Day of the Week</t>
+  </si>
+  <si>
+    <t>A117</t>
+  </si>
+  <si>
+    <t>Distance Between Bus Stops</t>
+  </si>
+  <si>
+    <t>A118</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>A119</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>A120</t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t>A121</t>
+  </si>
+  <si>
+    <t>Degree of an Array</t>
+  </si>
+  <si>
+    <t>A122</t>
+  </si>
+  <si>
+    <t>Rotate String</t>
+  </si>
+  <si>
+    <t>A123</t>
+  </si>
+  <si>
+    <t>1로 만들기</t>
+  </si>
+  <si>
+    <t>A124</t>
+  </si>
+  <si>
+    <t>소인수분해</t>
+  </si>
+  <si>
+    <t>A125</t>
+  </si>
+  <si>
+    <t>로프</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>한수</t>
+  </si>
+  <si>
+    <t>A127</t>
+  </si>
+  <si>
+    <t>최소공배수</t>
+  </si>
+  <si>
+    <t>A128</t>
+  </si>
+  <si>
+    <t>균형잡힌 세상</t>
+  </si>
+  <si>
+    <t>A129</t>
+  </si>
+  <si>
+    <t>1, 2, 3 더하기</t>
+  </si>
+  <si>
+    <t>A130</t>
+  </si>
+  <si>
+    <t>제로</t>
+  </si>
+  <si>
+    <t>A131</t>
+  </si>
+  <si>
+    <t>통계학</t>
+  </si>
+  <si>
+    <t>A132</t>
+  </si>
+  <si>
+    <t>터렛</t>
+  </si>
+  <si>
+    <t>A133</t>
+  </si>
+  <si>
+    <t>Capitalize the Title</t>
+  </si>
+  <si>
+    <t>A134</t>
+  </si>
+  <si>
+    <t>Reverse Prefix of Word</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>바이러스</t>
+  </si>
+  <si>
+    <t>B002</t>
+  </si>
+  <si>
+    <t>Employee Importance</t>
+  </si>
+  <si>
+    <t>B003</t>
+  </si>
+  <si>
+    <t>Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>B005</t>
+  </si>
+  <si>
+    <t>Two Sum IV - Input is a BST</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>DFS와 BFS</t>
+  </si>
+  <si>
+    <t>B007</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>B008</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>B009</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>B010</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>B011</t>
+  </si>
+  <si>
+    <t>Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>B012</t>
+  </si>
+  <si>
+    <t>이진 검색 트리</t>
+  </si>
+  <si>
+    <t>B013</t>
+  </si>
+  <si>
+    <t>물통</t>
+  </si>
+  <si>
+    <t>B014</t>
+  </si>
+  <si>
+    <t>섬의 개수</t>
+  </si>
+  <si>
+    <t>B015</t>
+  </si>
+  <si>
+    <t>점프점프</t>
+  </si>
+  <si>
+    <t>B016</t>
+  </si>
+  <si>
+    <t>Increasing Order Search Tree</t>
+  </si>
+  <si>
+    <t>B017</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>B018</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>B019</t>
+  </si>
+  <si>
+    <t>적록색약</t>
+  </si>
+  <si>
+    <t>B020</t>
+  </si>
+  <si>
+    <t>숫자판 점프</t>
+  </si>
+  <si>
+    <t>B021</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>B022</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>B023</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>B024</t>
+  </si>
+  <si>
+    <t>Relative Ranks</t>
+  </si>
+  <si>
+    <t>B025</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>B026</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>B027</t>
+  </si>
+  <si>
+    <t>Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>B028</t>
+  </si>
+  <si>
+    <t>Arranging Coins</t>
+  </si>
+  <si>
+    <t>B029</t>
+  </si>
+  <si>
+    <t>Array Partition I</t>
+  </si>
+  <si>
+    <t>B030</t>
+  </si>
+  <si>
+    <t>Maximize Sum Of Array After K Negations</t>
+  </si>
+  <si>
+    <t>B031</t>
+  </si>
+  <si>
+    <t>라디오</t>
+  </si>
+  <si>
+    <t>B032</t>
+  </si>
+  <si>
+    <t>이장님 초대</t>
+  </si>
+  <si>
+    <t>B033</t>
+  </si>
+  <si>
+    <t>전자레인지</t>
+  </si>
+  <si>
+    <t>B034</t>
+  </si>
+  <si>
+    <t>체육복</t>
+  </si>
+  <si>
+    <t>B035</t>
+  </si>
+  <si>
+    <t>동전 0</t>
+  </si>
+  <si>
+    <t>B036</t>
+  </si>
+  <si>
+    <t>잃어버린 괄호</t>
+  </si>
+  <si>
+    <t>B037</t>
+  </si>
+  <si>
+    <t>방탈출</t>
+  </si>
+  <si>
+    <t>B038</t>
+  </si>
+  <si>
+    <t>스네이크버드</t>
+  </si>
+  <si>
+    <t>B039</t>
+  </si>
+  <si>
+    <t>추 정렬하기</t>
+  </si>
+  <si>
+    <t>B040</t>
+  </si>
+  <si>
+    <t>DNA 발견</t>
+  </si>
+  <si>
+    <t>B041</t>
+  </si>
+  <si>
+    <t>Maximum 69 Number</t>
+  </si>
+  <si>
+    <t>B042</t>
+  </si>
+  <si>
+    <t>Split a String in Balanced Strings</t>
+  </si>
+  <si>
+    <t>B043</t>
+  </si>
+  <si>
+    <t>Happy Number</t>
+  </si>
+  <si>
+    <t>B044</t>
+  </si>
+  <si>
+    <t>Reshape the Matrix</t>
+  </si>
+  <si>
+    <t>B045</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>B046</t>
+  </si>
+  <si>
+    <t>Flood Fill</t>
+  </si>
+  <si>
+    <t>B047</t>
+  </si>
+  <si>
+    <t>Island Perimeter</t>
+  </si>
+  <si>
+    <t>B048</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>B049</t>
+  </si>
+  <si>
+    <t>트리의 부모 찾기</t>
+  </si>
+  <si>
+    <t>B050</t>
+  </si>
+  <si>
+    <t>트리의 지름</t>
+  </si>
+  <si>
+    <t>B051</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>B052</t>
+  </si>
+  <si>
+    <t>Binary Tree Tilt</t>
+  </si>
+  <si>
+    <t>B053</t>
+  </si>
+  <si>
+    <t>N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>B054</t>
+  </si>
+  <si>
+    <t>N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>B055</t>
+  </si>
+  <si>
+    <t>Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t>B056</t>
+  </si>
+  <si>
+    <t>Sum of Root To Leaf Binary Numbers</t>
+  </si>
+  <si>
+    <t>B057</t>
+  </si>
+  <si>
+    <t>Maximum Depth of N-ary Tree</t>
+  </si>
+  <si>
+    <t>B058</t>
+  </si>
+  <si>
+    <t>Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t>B059</t>
+  </si>
+  <si>
+    <t>Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>B060</t>
+  </si>
+  <si>
+    <t>Cousins in Binary Tree</t>
+  </si>
+  <si>
+    <t>B061</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>B062</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>B063</t>
+  </si>
+  <si>
+    <t>Univalued Binary Tree</t>
+  </si>
+  <si>
+    <t>B064</t>
+  </si>
+  <si>
+    <t>두 수의 합</t>
+  </si>
+  <si>
+    <t>B065</t>
+  </si>
+  <si>
+    <t>부분합</t>
+  </si>
+  <si>
+    <t>B066</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>B067</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String III</t>
+  </si>
+  <si>
+    <t>B068</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>B069</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>B070</t>
+  </si>
+  <si>
+    <t>Min Cost Climbing Stairs</t>
+  </si>
+  <si>
+    <t>B071</t>
+  </si>
+  <si>
+    <t>카드 구매하기</t>
+  </si>
+  <si>
+    <t>B072</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>B073</t>
+  </si>
+  <si>
+    <t>멀리 뛰기</t>
+  </si>
+  <si>
+    <t>B074</t>
+  </si>
+  <si>
+    <t>콜라츠 추측</t>
+  </si>
+  <si>
+    <t>B075</t>
+  </si>
+  <si>
+    <t>달나라 토끼를 위한 구매대금 지불 도우미</t>
+  </si>
+  <si>
+    <t>B076</t>
+  </si>
+  <si>
+    <t>가장 큰 감소 부분 수열</t>
+  </si>
+  <si>
+    <t>B077</t>
+  </si>
+  <si>
+    <t>피보나치 수</t>
+  </si>
+  <si>
+    <t>B078</t>
+  </si>
+  <si>
+    <t>Get Maximum in Generated Array</t>
+  </si>
+  <si>
+    <t>B079</t>
+  </si>
+  <si>
+    <t>N-th Tribonacci Number</t>
+  </si>
+  <si>
+    <t>B080</t>
+  </si>
+  <si>
+    <t>Counting Bits</t>
+  </si>
+  <si>
+    <t>B081</t>
+  </si>
+  <si>
+    <t>Divisor Game</t>
+  </si>
+  <si>
+    <t>B082</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>B083</t>
+  </si>
+  <si>
+    <t>Fibonacci Number</t>
+  </si>
+  <si>
+    <t>B084</t>
+  </si>
+  <si>
+    <t>Big Countries</t>
+  </si>
+  <si>
+    <t>B085</t>
+  </si>
+  <si>
+    <t>Combine Two Tables</t>
+  </si>
+  <si>
+    <t>B086</t>
+  </si>
+  <si>
+    <t>Duplicate Emails</t>
+  </si>
+  <si>
+    <t>B087</t>
+  </si>
+  <si>
+    <t>Rising Temperature</t>
+  </si>
+  <si>
+    <t>B088</t>
+  </si>
+  <si>
+    <t>Second Highest Salary</t>
+  </si>
+  <si>
+    <t>B089</t>
+  </si>
+  <si>
+    <t>Classes More Than 5 Students</t>
+  </si>
+  <si>
+    <t>B090</t>
+  </si>
+  <si>
+    <t>Customers Who Never Order</t>
+  </si>
+  <si>
+    <t>B091</t>
+  </si>
+  <si>
+    <t>Employees Earning More Than Their Managers</t>
+  </si>
+  <si>
+    <t>B092</t>
+  </si>
+  <si>
+    <t>Not Boring Movies</t>
+  </si>
+  <si>
+    <t>B093</t>
+  </si>
+  <si>
+    <t>Reformat Department Table</t>
+  </si>
+  <si>
+    <t>B094</t>
+  </si>
+  <si>
+    <t>Swap Salary</t>
+  </si>
+  <si>
+    <t>B095</t>
+  </si>
+  <si>
+    <t>Reverse Bits</t>
+  </si>
+  <si>
+    <t>B096</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>B097</t>
+  </si>
+  <si>
+    <t>Design HashMap</t>
+  </si>
+  <si>
+    <t>B098</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>B099</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>B100</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>Relative Sort Array</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>Largest Perimeter Triangle</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>Sum of All Subset XOR Totals</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>Binary Watch</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>Complement of Base 10 Integer</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>분해합</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>완주하지 못한 선수</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>C007</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>Keyboard Row</t>
+  </si>
+  <si>
+    <t>C009</t>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+  </si>
+  <si>
+    <t>C010</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>C011</t>
+  </si>
+  <si>
+    <t>Destination City</t>
+  </si>
+  <si>
+    <t>C012</t>
+  </si>
+  <si>
+    <t>Find Lucky Integer in an Array</t>
+  </si>
+  <si>
+    <t>C013</t>
+  </si>
+  <si>
+    <t>Distribute Candies</t>
+  </si>
+  <si>
+    <t>C014</t>
+  </si>
+  <si>
+    <t>Find Common Characters</t>
+  </si>
+  <si>
+    <t>C015</t>
+  </si>
+  <si>
+    <t>Unique Email Addresses</t>
+  </si>
+  <si>
+    <t>C016</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>C017</t>
+  </si>
+  <si>
+    <t>Second Largest Digit in a String</t>
+  </si>
+  <si>
+    <t>C018</t>
+  </si>
+  <si>
+    <t>Uncommon Words from Two Sentences</t>
+  </si>
+  <si>
+    <t>C019</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>C020</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>C021</t>
+  </si>
+  <si>
+    <t>Two City Scheduling</t>
+  </si>
+  <si>
+    <t>C022</t>
+  </si>
+  <si>
+    <t>소수 만들기</t>
+  </si>
+  <si>
+    <t>C023</t>
+  </si>
+  <si>
+    <t>블라인드</t>
+  </si>
+  <si>
+    <t>C024</t>
+  </si>
+  <si>
+    <t>멀쩡한 사각형</t>
+  </si>
+  <si>
+    <t>C025</t>
+  </si>
+  <si>
+    <t>약수의 개수와 덧셈</t>
+  </si>
+  <si>
+    <t>C026</t>
+  </si>
+  <si>
+    <t>리모컨</t>
+  </si>
+  <si>
+    <t>C027</t>
+  </si>
+  <si>
+    <t>날짜 계산</t>
+  </si>
+  <si>
+    <t>C028</t>
+  </si>
+  <si>
+    <t>빠른 A+B</t>
+  </si>
+  <si>
+    <t>C029</t>
+  </si>
+  <si>
+    <t>손익분기점</t>
+  </si>
+  <si>
+    <t>C030</t>
+  </si>
+  <si>
+    <t>과일 서리</t>
+  </si>
+  <si>
+    <t>C031</t>
+  </si>
+  <si>
+    <t>다항 함수의 적분</t>
+  </si>
+  <si>
+    <t>C032</t>
+  </si>
+  <si>
+    <t>벌집</t>
+  </si>
+  <si>
+    <t>C033</t>
+  </si>
+  <si>
+    <t>삼각김밥</t>
+  </si>
+  <si>
+    <t>C034</t>
+  </si>
+  <si>
+    <t>설탕 배달</t>
+  </si>
+  <si>
+    <t>C035</t>
+  </si>
+  <si>
+    <t>직각삼각형</t>
+  </si>
+  <si>
+    <t>C036</t>
+  </si>
+  <si>
+    <t>백설 공주와 일곱 난쟁이</t>
+  </si>
+  <si>
+    <t>C037</t>
+  </si>
+  <si>
+    <t>피보나치 수의 개수</t>
+  </si>
+  <si>
+    <t>C038</t>
+  </si>
+  <si>
+    <t>화학자의 문장 (목록 중 9번)</t>
+  </si>
+  <si>
+    <t>C039</t>
+  </si>
+  <si>
+    <t>Count and Say</t>
+  </si>
+  <si>
+    <t>C040</t>
+  </si>
+  <si>
+    <t>Repeated String Match</t>
+  </si>
+  <si>
+    <t>C041</t>
+  </si>
+  <si>
+    <t>Restore IP Addresses</t>
+  </si>
+  <si>
+    <t>C042</t>
+  </si>
+  <si>
+    <t>ZigZag Conversion</t>
+  </si>
+  <si>
+    <t>C043</t>
+  </si>
+  <si>
+    <t>방문 길이</t>
+  </si>
+  <si>
+    <t>C044</t>
+  </si>
+  <si>
+    <t>팰린드롬 공포증</t>
+  </si>
+  <si>
+    <t>C045</t>
+  </si>
+  <si>
+    <t>아기 석환 뚜루루 뚜루</t>
+  </si>
+  <si>
+    <t>C046</t>
+  </si>
+  <si>
+    <t>IBM 빼기 1</t>
+  </si>
+  <si>
+    <t>C047</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>C048</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>C049</t>
+  </si>
+  <si>
+    <t>Simplify Path</t>
+  </si>
+  <si>
+    <t>C050</t>
+  </si>
+  <si>
+    <t>미궁 속의 방 (목록 중 6번)</t>
+  </si>
+  <si>
+    <t>C051</t>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>C052</t>
+  </si>
+  <si>
+    <t>볼링 점수 계산</t>
+  </si>
+  <si>
+    <t>C053</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates in String II</t>
+  </si>
+  <si>
+    <t>C054</t>
+  </si>
+  <si>
+    <t>Reverse Substrings Between Each Pair of Parentheses</t>
+  </si>
+  <si>
+    <t>C055</t>
+  </si>
+  <si>
+    <t>진용이네 주차타워</t>
+  </si>
+  <si>
+    <t>C056</t>
+  </si>
+  <si>
+    <t>Reconstruct Original Digits from English</t>
+  </si>
+  <si>
+    <t>C057</t>
+  </si>
+  <si>
+    <t>단어 정렬</t>
+  </si>
+  <si>
+    <t>C058</t>
+  </si>
+  <si>
+    <t>K번째 수</t>
+  </si>
+  <si>
+    <t>C059</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>C060</t>
+  </si>
+  <si>
+    <t>Pancake Sorting</t>
+  </si>
+  <si>
+    <t>C061</t>
+  </si>
+  <si>
+    <t>서로 다른 부분 문자열의 개수</t>
+  </si>
+  <si>
+    <t>C062</t>
+  </si>
+  <si>
+    <t>캠퍼스와 도로(1) (목록 중 15번)</t>
+  </si>
+  <si>
+    <t>C063</t>
+  </si>
+  <si>
+    <t>수 찾기</t>
+  </si>
+  <si>
+    <t>C064</t>
+  </si>
+  <si>
+    <t>좋은 수 (목록 중 7번)</t>
+  </si>
+  <si>
+    <t>C065</t>
+  </si>
+  <si>
+    <t>Insertion Sort List</t>
+  </si>
+  <si>
+    <t>C066</t>
+  </si>
+  <si>
+    <t>영화감독 숌</t>
+  </si>
+  <si>
+    <t>C067</t>
+  </si>
+  <si>
+    <t>블랙잭</t>
+  </si>
+  <si>
+    <t>C068</t>
+  </si>
+  <si>
+    <t>덩치</t>
+  </si>
+  <si>
+    <t>C069</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>C070</t>
+  </si>
+  <si>
+    <t>회의실배정</t>
+  </si>
+  <si>
+    <t>C071</t>
+  </si>
+  <si>
+    <t>오르막길</t>
+  </si>
+  <si>
+    <t>C072</t>
+  </si>
+  <si>
+    <t>고득점</t>
+  </si>
+  <si>
+    <t>C073</t>
+  </si>
+  <si>
+    <t>정돈된 배열</t>
+  </si>
+  <si>
+    <t>C074</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>C075</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>C076</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>C077</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>C078</t>
+  </si>
+  <si>
+    <t>Uncrossed Lines</t>
+  </si>
+  <si>
+    <t>C079</t>
+  </si>
+  <si>
+    <t>Stone Game</t>
+  </si>
+  <si>
+    <t>C080</t>
+  </si>
+  <si>
+    <t>체스판 다시 칠하기</t>
+  </si>
+  <si>
+    <t>C081</t>
+  </si>
+  <si>
+    <t>Brick Wall</t>
+  </si>
+  <si>
+    <t>C082</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>C083</t>
+  </si>
+  <si>
+    <t>가르침</t>
+  </si>
+  <si>
+    <t>C084</t>
+  </si>
+  <si>
+    <t>스도쿠</t>
+  </si>
+  <si>
+    <t>C085</t>
+  </si>
+  <si>
+    <t>좋은 수열</t>
+  </si>
+  <si>
+    <t>C086</t>
+  </si>
+  <si>
+    <t>부분수열의 합</t>
+  </si>
+  <si>
+    <t>C087</t>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>C088</t>
+  </si>
+  <si>
+    <t>Integer to Roman</t>
+  </si>
+  <si>
+    <t>C089</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>C090</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>D001</t>
+  </si>
+  <si>
+    <t>경재와 대환이의 돌게임</t>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>ACM 호텔</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>점프 (목록 중 95번)</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>키로거</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>듣보잡</t>
+  </si>
+  <si>
+    <t>D006</t>
+  </si>
+  <si>
+    <t>다슬이의 연봉인상</t>
+  </si>
+  <si>
+    <t>D007</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>D008</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock III</t>
+  </si>
+  <si>
+    <t>D009</t>
+  </si>
+  <si>
+    <t>욕심쟁이 판다</t>
+  </si>
+  <si>
+    <t>D010</t>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
+    <t>D011</t>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+  </si>
+  <si>
     <t>Determine if String Halves Are Alike</t>
-  </si>
-  <si>
-    <t>A041</t>
-  </si>
-  <si>
-    <t>JadenCase 문자열 만들기</t>
-  </si>
-  <si>
-    <t>A042</t>
-  </si>
-  <si>
-    <t>Backspace String Compare</t>
-  </si>
-  <si>
-    <t>A043</t>
-  </si>
-  <si>
-    <t>Longest Common Prefix</t>
-  </si>
-  <si>
-    <t>A044</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Student Attendance Record I</t>
-  </si>
-  <si>
-    <t>A045</t>
-  </si>
-  <si>
-    <t>단어 공부</t>
-  </si>
-  <si>
-    <t>A046</t>
-  </si>
-  <si>
-    <t>농구 경기</t>
-  </si>
-  <si>
-    <t>A047</t>
-  </si>
-  <si>
-    <t>열개씩 끊어 출력하기</t>
-  </si>
-  <si>
-    <t>A048</t>
-  </si>
-  <si>
-    <t>그룹 단어 체커</t>
-  </si>
-  <si>
-    <t>A049</t>
-  </si>
-  <si>
-    <t>비밀번호 발음하기</t>
-  </si>
-  <si>
-    <t>A050</t>
-  </si>
-  <si>
-    <t>카이사르 암호</t>
-  </si>
-  <si>
-    <t>A051</t>
-  </si>
-  <si>
-    <t>다이얼</t>
-  </si>
-  <si>
-    <t>A052</t>
-  </si>
-  <si>
-    <t>OX퀴즈</t>
-  </si>
-  <si>
-    <t>A053</t>
-  </si>
-  <si>
-    <t>스택</t>
-  </si>
-  <si>
-    <t>A054</t>
-  </si>
-  <si>
-    <t>크레인 인형뽑기 게임</t>
-  </si>
-  <si>
-    <t>A055</t>
-  </si>
-  <si>
-    <t>Remove Outermost Parentheses</t>
-  </si>
-  <si>
-    <t>A056</t>
-  </si>
-  <si>
-    <t>Next Greater Element I</t>
-  </si>
-  <si>
-    <t>A057</t>
-  </si>
-  <si>
-    <t>쿠키 구입</t>
-  </si>
-  <si>
-    <t>A058</t>
-  </si>
-  <si>
-    <t>Reverse Linked List</t>
-  </si>
-  <si>
-    <t>A059</t>
-  </si>
-  <si>
-    <t>시험 공부 (목록 중 3번)</t>
-  </si>
-  <si>
-    <t>A060</t>
-  </si>
-  <si>
-    <t>Baseball Game</t>
-  </si>
-  <si>
-    <t>A061</t>
-  </si>
-  <si>
-    <t>Excel Sheet Column Title</t>
-  </si>
-  <si>
-    <t>A062</t>
-  </si>
-  <si>
-    <t>2016년</t>
-  </si>
-  <si>
-    <t>A063</t>
-  </si>
-  <si>
-    <t>Add Binary</t>
-  </si>
-  <si>
-    <t>A064</t>
-  </si>
-  <si>
-    <t>Height Checker</t>
-  </si>
-  <si>
-    <t>A065</t>
-  </si>
-  <si>
-    <t>좌표 정렬하기</t>
-  </si>
-  <si>
-    <t>A066</t>
-  </si>
-  <si>
-    <t>소트인사이드</t>
-  </si>
-  <si>
-    <t>A067</t>
-  </si>
-  <si>
-    <t>Remove All Adjacent Duplicates In String</t>
-  </si>
-  <si>
-    <t>A068</t>
-  </si>
-  <si>
-    <t>큐 2</t>
-  </si>
-  <si>
-    <t>A069</t>
-  </si>
-  <si>
-    <t>요세푸스 문제 0</t>
-  </si>
-  <si>
-    <t>A070</t>
-  </si>
-  <si>
-    <t>카드2</t>
-  </si>
-  <si>
-    <t>A071</t>
-  </si>
-  <si>
-    <t>Implement Queue using Stacks</t>
-  </si>
-  <si>
-    <t>A072</t>
-  </si>
-  <si>
-    <t>Day of the Year</t>
-  </si>
-  <si>
-    <t>A073</t>
-  </si>
-  <si>
-    <t>Fizz Buzz</t>
-  </si>
-  <si>
-    <t>A074</t>
-  </si>
-  <si>
-    <t>Valid Palindrome</t>
-  </si>
-  <si>
-    <t>A075</t>
-  </si>
-  <si>
-    <t>가장 큰 수</t>
-  </si>
-  <si>
-    <t>A076</t>
-  </si>
-  <si>
-    <t>염라대왕의 이름 정렬</t>
-  </si>
-  <si>
-    <t>A077</t>
-  </si>
-  <si>
-    <t>점수 계산</t>
-  </si>
-  <si>
-    <t>A078</t>
-  </si>
-  <si>
-    <t>H-Index</t>
-  </si>
-  <si>
-    <t>A079</t>
-  </si>
-  <si>
-    <t>K번째수</t>
-  </si>
-  <si>
-    <t>A080</t>
-  </si>
-  <si>
-    <t>Majority Element</t>
-  </si>
-  <si>
-    <t>A081</t>
-  </si>
-  <si>
-    <t>N번째 큰 수</t>
-  </si>
-  <si>
-    <t>A082</t>
-  </si>
-  <si>
-    <t>나이순 정렬</t>
-  </si>
-  <si>
-    <t>A083</t>
-  </si>
-  <si>
-    <t>중복 빼고 정렬하기</t>
-  </si>
-  <si>
-    <t>A084</t>
-  </si>
-  <si>
-    <t>접미사 배열</t>
-  </si>
-  <si>
-    <t>A085</t>
-  </si>
-  <si>
-    <t>시리얼 번호</t>
-  </si>
-  <si>
-    <t>A086</t>
-  </si>
-  <si>
-    <t>숫자 놀이</t>
-  </si>
-  <si>
-    <t>A087</t>
-  </si>
-  <si>
-    <t>Maximum Units on a Truck</t>
-  </si>
-  <si>
-    <t>A088</t>
-  </si>
-  <si>
-    <t>Min Stack</t>
-  </si>
-  <si>
-    <t>A089</t>
-  </si>
-  <si>
-    <t>Convert Sorted Array to Binary Search Tree</t>
-  </si>
-  <si>
-    <t>A090</t>
-  </si>
-  <si>
-    <t>Remove Duplicates from Sorted Array</t>
-  </si>
-  <si>
-    <t>A091</t>
-  </si>
-  <si>
-    <t>Remove Element</t>
-  </si>
-  <si>
-    <t>A092</t>
-  </si>
-  <si>
-    <t>Sort Array By Parity II</t>
-  </si>
-  <si>
-    <t>A093</t>
-  </si>
-  <si>
-    <t>Merge Sorted Array</t>
-  </si>
-  <si>
-    <t>A094</t>
-  </si>
-  <si>
-    <t>크로아티아 알파벳</t>
-  </si>
-  <si>
-    <t>A095</t>
-  </si>
-  <si>
-    <t>Valid Phone Numbers</t>
-  </si>
-  <si>
-    <t>A096</t>
-  </si>
-  <si>
-    <t>Number of 1 Bits</t>
-  </si>
-  <si>
-    <t>A097</t>
-  </si>
-  <si>
-    <t>Two Sum II - Input Array is Sorted</t>
-  </si>
-  <si>
-    <t>A098</t>
-  </si>
-  <si>
-    <t>Intersection of Two Linked Lists</t>
-  </si>
-  <si>
-    <t>A099</t>
-  </si>
-  <si>
-    <t>Valid Parentheses</t>
-  </si>
-  <si>
-    <t>A100</t>
-  </si>
-  <si>
-    <t>Range Sum of BST</t>
-  </si>
-  <si>
-    <t>A101</t>
-  </si>
-  <si>
-    <t>Fair Candy Swap</t>
-  </si>
-  <si>
-    <t>A102</t>
-  </si>
-  <si>
-    <t>Transpose Matrix</t>
-  </si>
-  <si>
-    <t>A103</t>
-  </si>
-  <si>
-    <t>Unique Morse Code Words</t>
-  </si>
-  <si>
-    <t>A104</t>
-  </si>
-  <si>
-    <t>욱제는 효도쟁이야!!</t>
-  </si>
-  <si>
-    <t>A105</t>
-  </si>
-  <si>
-    <t>분수찾기</t>
-  </si>
-  <si>
-    <t>A106</t>
-  </si>
-  <si>
-    <t>등장하지 않는 문자의 합</t>
-  </si>
-  <si>
-    <t>A107</t>
-  </si>
-  <si>
-    <t>쉽게 푸는 문제</t>
-  </si>
-  <si>
-    <t>A108</t>
-  </si>
-  <si>
-    <t>수 뒤집기</t>
-  </si>
-  <si>
-    <t>A109</t>
-  </si>
-  <si>
-    <t>벨트</t>
-  </si>
-  <si>
-    <t>A110</t>
-  </si>
-  <si>
-    <t>거스름돈</t>
-  </si>
-  <si>
-    <t>A111</t>
-  </si>
-  <si>
-    <t>3000번 버스</t>
-  </si>
-  <si>
-    <t>A112</t>
-  </si>
-  <si>
-    <t>기타줄</t>
-  </si>
-  <si>
-    <t>A113</t>
-  </si>
-  <si>
-    <t>연결 요소의 갯수</t>
-  </si>
-  <si>
-    <t>A114</t>
-  </si>
-  <si>
-    <t>Prime Arrangements</t>
-  </si>
-  <si>
-    <t>A115</t>
-  </si>
-  <si>
-    <t>Maximum Number of Balloons</t>
-  </si>
-  <si>
-    <t>A116</t>
-  </si>
-  <si>
-    <t>Day of the Week</t>
-  </si>
-  <si>
-    <t>A117</t>
-  </si>
-  <si>
-    <t>Distance Between Bus Stops</t>
-  </si>
-  <si>
-    <t>A118</t>
-  </si>
-  <si>
-    <t>Move Zeroes</t>
-  </si>
-  <si>
-    <t>A119</t>
-  </si>
-  <si>
-    <t>Guess Number Higher or Lower</t>
-  </si>
-  <si>
-    <t>A120</t>
-  </si>
-  <si>
-    <t>Find the Difference</t>
-  </si>
-  <si>
-    <t>A121</t>
-  </si>
-  <si>
-    <t>Degree of an Array</t>
-  </si>
-  <si>
-    <t>A122</t>
-  </si>
-  <si>
-    <t>Rotate String</t>
-  </si>
-  <si>
-    <t>A123</t>
-  </si>
-  <si>
-    <t>1로 만들기</t>
-  </si>
-  <si>
-    <t>A124</t>
-  </si>
-  <si>
-    <t>소인수분해</t>
-  </si>
-  <si>
-    <t>A125</t>
-  </si>
-  <si>
-    <t>로프</t>
-  </si>
-  <si>
-    <t>A126</t>
-  </si>
-  <si>
-    <t>한수</t>
-  </si>
-  <si>
-    <t>A127</t>
-  </si>
-  <si>
-    <t>최소공배수</t>
-  </si>
-  <si>
-    <t>A128</t>
-  </si>
-  <si>
-    <t>균형잡힌 세상</t>
-  </si>
-  <si>
-    <t>A129</t>
-  </si>
-  <si>
-    <t>1, 2, 3 더하기</t>
-  </si>
-  <si>
-    <t>A130</t>
-  </si>
-  <si>
-    <t>제로</t>
-  </si>
-  <si>
-    <t>A131</t>
-  </si>
-  <si>
-    <t>통계학</t>
-  </si>
-  <si>
-    <t>A132</t>
-  </si>
-  <si>
-    <t>터렛</t>
-  </si>
-  <si>
-    <t>A133</t>
-  </si>
-  <si>
-    <t>Capitalize the Title</t>
-  </si>
-  <si>
-    <t>A134</t>
-  </si>
-  <si>
-    <t>Reverse Prefix of Word</t>
-  </si>
-  <si>
-    <t>B001</t>
-  </si>
-  <si>
-    <t>바이러스</t>
-  </si>
-  <si>
-    <t>B002</t>
-  </si>
-  <si>
-    <t>Employee Importance</t>
-  </si>
-  <si>
-    <t>B003</t>
-  </si>
-  <si>
-    <t>Sum of Left Leaves</t>
-  </si>
-  <si>
-    <t>B004</t>
-  </si>
-  <si>
-    <t>Symmetric Tree</t>
-  </si>
-  <si>
-    <t>B005</t>
-  </si>
-  <si>
-    <t>Two Sum IV - Input is a BST</t>
-  </si>
-  <si>
-    <t>B006</t>
-  </si>
-  <si>
-    <t>DFS와 BFS</t>
-  </si>
-  <si>
-    <t>B007</t>
-  </si>
-  <si>
-    <t>Binary Search</t>
-  </si>
-  <si>
-    <t>B008</t>
-  </si>
-  <si>
-    <t>Search Insert Position</t>
-  </si>
-  <si>
-    <t>B009</t>
-  </si>
-  <si>
-    <t>Balanced Binary Tree</t>
-  </si>
-  <si>
-    <t>B010</t>
-  </si>
-  <si>
-    <t>Diameter of Binary Tree</t>
-  </si>
-  <si>
-    <t>B011</t>
-  </si>
-  <si>
-    <t>Merge Two Binary Trees</t>
-  </si>
-  <si>
-    <t>B012</t>
-  </si>
-  <si>
-    <t>이진 검색 트리</t>
-  </si>
-  <si>
-    <t>B013</t>
-  </si>
-  <si>
-    <t>물통</t>
-  </si>
-  <si>
-    <t>B014</t>
-  </si>
-  <si>
-    <t>섬의 개수</t>
-  </si>
-  <si>
-    <t>B015</t>
-  </si>
-  <si>
-    <t>점프점프</t>
-  </si>
-  <si>
-    <t>B016</t>
-  </si>
-  <si>
-    <t>Increasing Order Search Tree</t>
-  </si>
-  <si>
-    <t>B017</t>
-  </si>
-  <si>
-    <t>Invert Binary Tree</t>
-  </si>
-  <si>
-    <t>B018</t>
-  </si>
-  <si>
-    <t>Path Sum</t>
-  </si>
-  <si>
-    <t>B019</t>
-  </si>
-  <si>
-    <t>적록색약</t>
-  </si>
-  <si>
-    <t>B020</t>
-  </si>
-  <si>
-    <t>숫자판 점프</t>
-  </si>
-  <si>
-    <t>B021</t>
-  </si>
-  <si>
-    <t>Binary Tree Inorder Traversal</t>
-  </si>
-  <si>
-    <t>B022</t>
-  </si>
-  <si>
-    <t>Binary Tree Postorder Traversal</t>
-  </si>
-  <si>
-    <t>B023</t>
-  </si>
-  <si>
-    <t>Kth Largest Element in a Stream</t>
-  </si>
-  <si>
-    <t>B024</t>
-  </si>
-  <si>
-    <t>Relative Ranks</t>
-  </si>
-  <si>
-    <t>B025</t>
-  </si>
-  <si>
-    <t>Delete Node in a Linked List</t>
-  </si>
-  <si>
-    <t>B026</t>
-  </si>
-  <si>
-    <t>Merge Two Sorted Lists</t>
-  </si>
-  <si>
-    <t>B027</t>
-  </si>
-  <si>
-    <t>Middle of the Linked List</t>
-  </si>
-  <si>
-    <t>B028</t>
-  </si>
-  <si>
-    <t>Arranging Coins</t>
-  </si>
-  <si>
-    <t>B029</t>
-  </si>
-  <si>
-    <t>Array Partition I</t>
-  </si>
-  <si>
-    <t>B030</t>
-  </si>
-  <si>
-    <t>Maximize Sum Of Array After K Negations</t>
-  </si>
-  <si>
-    <t>B031</t>
-  </si>
-  <si>
-    <t>라디오</t>
-  </si>
-  <si>
-    <t>B032</t>
-  </si>
-  <si>
-    <t>이장님 초대</t>
-  </si>
-  <si>
-    <t>B033</t>
-  </si>
-  <si>
-    <t>전자레인지</t>
-  </si>
-  <si>
-    <t>B034</t>
-  </si>
-  <si>
-    <t>체육복</t>
-  </si>
-  <si>
-    <t>B035</t>
-  </si>
-  <si>
-    <t>동전 0</t>
-  </si>
-  <si>
-    <t>B036</t>
-  </si>
-  <si>
-    <t>잃어버린 괄호</t>
-  </si>
-  <si>
-    <t>B037</t>
-  </si>
-  <si>
-    <t>방탈출</t>
-  </si>
-  <si>
-    <t>B038</t>
-  </si>
-  <si>
-    <t>스네이크버드</t>
-  </si>
-  <si>
-    <t>B039</t>
-  </si>
-  <si>
-    <t>추 정렬하기</t>
-  </si>
-  <si>
-    <t>B040</t>
-  </si>
-  <si>
-    <t>DNA 발견</t>
-  </si>
-  <si>
-    <t>B041</t>
-  </si>
-  <si>
-    <t>Maximum 69 Number</t>
-  </si>
-  <si>
-    <t>B042</t>
-  </si>
-  <si>
-    <t>Split a String in Balanced Strings</t>
-  </si>
-  <si>
-    <t>B043</t>
-  </si>
-  <si>
-    <t>Happy Number</t>
-  </si>
-  <si>
-    <t>B044</t>
-  </si>
-  <si>
-    <t>Reshape the Matrix</t>
-  </si>
-  <si>
-    <t>B045</t>
-  </si>
-  <si>
-    <t>Palindrome Linked List</t>
-  </si>
-  <si>
-    <t>B046</t>
-  </si>
-  <si>
-    <t>Flood Fill</t>
-  </si>
-  <si>
-    <t>B047</t>
-  </si>
-  <si>
-    <t>Island Perimeter</t>
-  </si>
-  <si>
-    <t>B048</t>
-  </si>
-  <si>
-    <t>Range Sum Query - Immutable</t>
-  </si>
-  <si>
-    <t>B049</t>
-  </si>
-  <si>
-    <t>트리의 부모 찾기</t>
-  </si>
-  <si>
-    <t>B050</t>
-  </si>
-  <si>
-    <t>트리의 지름</t>
-  </si>
-  <si>
-    <t>B051</t>
-  </si>
-  <si>
-    <t>Binary Tree Paths</t>
-  </si>
-  <si>
-    <t>B052</t>
-  </si>
-  <si>
-    <t>Binary Tree Tilt</t>
-  </si>
-  <si>
-    <t>B053</t>
-  </si>
-  <si>
-    <t>N-ary Tree Postorder Traversal</t>
-  </si>
-  <si>
-    <t>B054</t>
-  </si>
-  <si>
-    <t>N-ary Tree Preorder Traversal</t>
-  </si>
-  <si>
-    <t>B055</t>
-  </si>
-  <si>
-    <t>Leaf-Similar Trees</t>
-  </si>
-  <si>
-    <t>B056</t>
-  </si>
-  <si>
-    <t>Sum of Root To Leaf Binary Numbers</t>
-  </si>
-  <si>
-    <t>B057</t>
-  </si>
-  <si>
-    <t>Maximum Depth of N-ary Tree</t>
-  </si>
-  <si>
-    <t>B058</t>
-  </si>
-  <si>
-    <t>Minimum Distance Between BST Nodes</t>
-  </si>
-  <si>
-    <t>B059</t>
-  </si>
-  <si>
-    <t>Average of Levels in Binary Tree</t>
-  </si>
-  <si>
-    <t>B060</t>
-  </si>
-  <si>
-    <t>Cousins in Binary Tree</t>
-  </si>
-  <si>
-    <t>B061</t>
-  </si>
-  <si>
-    <t>Maximum Depth of Binary Tree</t>
-  </si>
-  <si>
-    <t>B062</t>
-  </si>
-  <si>
-    <t>Same Tree</t>
-  </si>
-  <si>
-    <t>B063</t>
-  </si>
-  <si>
-    <t>Univalued Binary Tree</t>
-  </si>
-  <si>
-    <t>B064</t>
-  </si>
-  <si>
-    <t>두 수의 합</t>
-  </si>
-  <si>
-    <t>B065</t>
-  </si>
-  <si>
-    <t>부분합</t>
-  </si>
-  <si>
-    <t>B066</t>
-  </si>
-  <si>
-    <t>Reverse String</t>
-  </si>
-  <si>
-    <t>B067</t>
-  </si>
-  <si>
-    <t>Reverse Words in a String III</t>
-  </si>
-  <si>
-    <t>B068</t>
-  </si>
-  <si>
-    <t>Is Subsequence</t>
-  </si>
-  <si>
-    <t>B069</t>
-  </si>
-  <si>
-    <t>Maximum Subarray</t>
-  </si>
-  <si>
-    <t>B070</t>
-  </si>
-  <si>
-    <t>Min Cost Climbing Stairs</t>
-  </si>
-  <si>
-    <t>B071</t>
-  </si>
-  <si>
-    <t>카드 구매하기</t>
-  </si>
-  <si>
-    <t>B072</t>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock</t>
-  </si>
-  <si>
-    <t>B073</t>
-  </si>
-  <si>
-    <t>멀리 뛰기</t>
-  </si>
-  <si>
-    <t>B074</t>
-  </si>
-  <si>
-    <t>콜라츠 추측</t>
-  </si>
-  <si>
-    <t>B075</t>
-  </si>
-  <si>
-    <t>달나라 토끼를 위한 구매대금 지불 도우미</t>
-  </si>
-  <si>
-    <t>B076</t>
-  </si>
-  <si>
-    <t>가장 큰 감소 부분 수열</t>
-  </si>
-  <si>
-    <t>B077</t>
-  </si>
-  <si>
-    <t>피보나치 수</t>
-  </si>
-  <si>
-    <t>B078</t>
-  </si>
-  <si>
-    <t>Get Maximum in Generated Array</t>
-  </si>
-  <si>
-    <t>B079</t>
-  </si>
-  <si>
-    <t>N-th Tribonacci Number</t>
-  </si>
-  <si>
-    <t>B080</t>
-  </si>
-  <si>
-    <t>Counting Bits</t>
-  </si>
-  <si>
-    <t>B081</t>
-  </si>
-  <si>
-    <t>Divisor Game</t>
-  </si>
-  <si>
-    <t>B082</t>
-  </si>
-  <si>
-    <t>Climbing Stairs</t>
-  </si>
-  <si>
-    <t>B083</t>
-  </si>
-  <si>
-    <t>Fibonacci Number</t>
-  </si>
-  <si>
-    <t>B084</t>
-  </si>
-  <si>
-    <t>Big Countries</t>
-  </si>
-  <si>
-    <t>B085</t>
-  </si>
-  <si>
-    <t>Combine Two Tables</t>
-  </si>
-  <si>
-    <t>B086</t>
-  </si>
-  <si>
-    <t>Duplicate Emails</t>
-  </si>
-  <si>
-    <t>B087</t>
-  </si>
-  <si>
-    <t>Rising Temperature</t>
-  </si>
-  <si>
-    <t>B088</t>
-  </si>
-  <si>
-    <t>Second Highest Salary</t>
-  </si>
-  <si>
-    <t>B089</t>
-  </si>
-  <si>
-    <t>Classes More Than 5 Students</t>
-  </si>
-  <si>
-    <t>B090</t>
-  </si>
-  <si>
-    <t>Customers Who Never Order</t>
-  </si>
-  <si>
-    <t>B091</t>
-  </si>
-  <si>
-    <t>Employees Earning More Than Their Managers</t>
-  </si>
-  <si>
-    <t>B092</t>
-  </si>
-  <si>
-    <t>Not Boring Movies</t>
-  </si>
-  <si>
-    <t>B093</t>
-  </si>
-  <si>
-    <t>Reformat Department Table</t>
-  </si>
-  <si>
-    <t>B094</t>
-  </si>
-  <si>
-    <t>Swap Salary</t>
-  </si>
-  <si>
-    <t>B095</t>
-  </si>
-  <si>
-    <t>Reverse Bits</t>
-  </si>
-  <si>
-    <t>B096</t>
-  </si>
-  <si>
-    <t>Two Sum</t>
-  </si>
-  <si>
-    <t>B097</t>
-  </si>
-  <si>
-    <t>Design HashMap</t>
-  </si>
-  <si>
-    <t>B098</t>
-  </si>
-  <si>
-    <t>Find All Numbers Disappeared in an Array</t>
-  </si>
-  <si>
-    <t>B099</t>
-  </si>
-  <si>
-    <t>Intersection of Two Arrays II</t>
-  </si>
-  <si>
-    <t>B100</t>
-  </si>
-  <si>
-    <t>Contains Duplicate</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
-    <t>Relative Sort Array</t>
-  </si>
-  <si>
-    <t>B102</t>
-  </si>
-  <si>
-    <t>Intersection of Two Arrays</t>
-  </si>
-  <si>
-    <t>B103</t>
-  </si>
-  <si>
-    <t>Largest Perimeter Triangle</t>
-  </si>
-  <si>
-    <t>C001</t>
-  </si>
-  <si>
-    <t>Sum of All Subset XOR Totals</t>
-  </si>
-  <si>
-    <t>C002</t>
-  </si>
-  <si>
-    <t>Binary Watch</t>
-  </si>
-  <si>
-    <t>C003</t>
-  </si>
-  <si>
-    <t>Complement of Base 10 Integer</t>
-  </si>
-  <si>
-    <t>C004</t>
-  </si>
-  <si>
-    <t>분해합</t>
-  </si>
-  <si>
-    <t>C005</t>
-  </si>
-  <si>
-    <t>완주하지 못한 선수</t>
-  </si>
-  <si>
-    <t>C006</t>
-  </si>
-  <si>
-    <t>First Unique Character in a String</t>
-  </si>
-  <si>
-    <t>C007</t>
-  </si>
-  <si>
-    <t>Isomorphic Strings</t>
-  </si>
-  <si>
-    <t>C008</t>
-  </si>
-  <si>
-    <t>Keyboard Row</t>
-  </si>
-  <si>
-    <t>C009</t>
-  </si>
-  <si>
-    <t>Longest Palindrome</t>
-  </si>
-  <si>
-    <t>C010</t>
-  </si>
-  <si>
-    <t>Missing Number</t>
-  </si>
-  <si>
-    <t>C011</t>
-  </si>
-  <si>
-    <t>Destination City</t>
-  </si>
-  <si>
-    <t>C012</t>
-  </si>
-  <si>
-    <t>Find Lucky Integer in an Array</t>
-  </si>
-  <si>
-    <t>C013</t>
-  </si>
-  <si>
-    <t>Distribute Candies</t>
-  </si>
-  <si>
-    <t>C014</t>
-  </si>
-  <si>
-    <t>Find Common Characters</t>
-  </si>
-  <si>
-    <t>C015</t>
-  </si>
-  <si>
-    <t>Unique Email Addresses</t>
-  </si>
-  <si>
-    <t>C016</t>
-  </si>
-  <si>
-    <t>Linked List Cycle</t>
-  </si>
-  <si>
-    <t>C017</t>
-  </si>
-  <si>
-    <t>Second Largest Digit in a String</t>
-  </si>
-  <si>
-    <t>C018</t>
-  </si>
-  <si>
-    <t>Uncommon Words from Two Sentences</t>
-  </si>
-  <si>
-    <t>C019</t>
-  </si>
-  <si>
-    <t>Valid Anagram</t>
-  </si>
-  <si>
-    <t>C020</t>
-  </si>
-  <si>
-    <t>Roman to Integer</t>
-  </si>
-  <si>
-    <t>C021</t>
-  </si>
-  <si>
-    <t>Two City Scheduling</t>
-  </si>
-  <si>
-    <t>C022</t>
-  </si>
-  <si>
-    <t>소수 만들기</t>
-  </si>
-  <si>
-    <t>C023</t>
-  </si>
-  <si>
-    <t>블라인드</t>
-  </si>
-  <si>
-    <t>C024</t>
-  </si>
-  <si>
-    <t>멀쩡한 사각형</t>
-  </si>
-  <si>
-    <t>C025</t>
-  </si>
-  <si>
-    <t>약수의 개수와 덧셈</t>
-  </si>
-  <si>
-    <t>C026</t>
-  </si>
-  <si>
-    <t>리모컨</t>
-  </si>
-  <si>
-    <t>C027</t>
-  </si>
-  <si>
-    <t>날짜 계산</t>
-  </si>
-  <si>
-    <t>C028</t>
-  </si>
-  <si>
-    <t>빠른 A+B</t>
-  </si>
-  <si>
-    <t>C029</t>
-  </si>
-  <si>
-    <t>손익분기점</t>
-  </si>
-  <si>
-    <t>C030</t>
-  </si>
-  <si>
-    <t>과일 서리</t>
-  </si>
-  <si>
-    <t>C031</t>
-  </si>
-  <si>
-    <t>다항 함수의 적분</t>
-  </si>
-  <si>
-    <t>C032</t>
-  </si>
-  <si>
-    <t>벌집</t>
-  </si>
-  <si>
-    <t>C033</t>
-  </si>
-  <si>
-    <t>삼각김밥</t>
-  </si>
-  <si>
-    <t>C034</t>
-  </si>
-  <si>
-    <t>설탕 배달</t>
-  </si>
-  <si>
-    <t>C035</t>
-  </si>
-  <si>
-    <t>직각삼각형</t>
-  </si>
-  <si>
-    <t>C036</t>
-  </si>
-  <si>
-    <t>백설 공주와 일곱 난쟁이</t>
-  </si>
-  <si>
-    <t>C037</t>
-  </si>
-  <si>
-    <t>피보나치 수의 개수</t>
-  </si>
-  <si>
-    <t>C038</t>
-  </si>
-  <si>
-    <t>화학자의 문장 (목록 중 9번)</t>
-  </si>
-  <si>
-    <t>C039</t>
-  </si>
-  <si>
-    <t>Count and Say</t>
-  </si>
-  <si>
-    <t>C040</t>
-  </si>
-  <si>
-    <t>Repeated String Match</t>
-  </si>
-  <si>
-    <t>C041</t>
-  </si>
-  <si>
-    <t>Restore IP Addresses</t>
-  </si>
-  <si>
-    <t>C042</t>
-  </si>
-  <si>
-    <t>ZigZag Conversion</t>
-  </si>
-  <si>
-    <t>C043</t>
-  </si>
-  <si>
-    <t>방문 길이</t>
-  </si>
-  <si>
-    <t>C044</t>
-  </si>
-  <si>
-    <t>팰린드롬 공포증</t>
-  </si>
-  <si>
-    <t>C045</t>
-  </si>
-  <si>
-    <t>아기 석환 뚜루루 뚜루</t>
-  </si>
-  <si>
-    <t>C046</t>
-  </si>
-  <si>
-    <t>IBM 빼기 1</t>
-  </si>
-  <si>
-    <t>C047</t>
-  </si>
-  <si>
-    <t>Decode String</t>
-  </si>
-  <si>
-    <t>C048</t>
-  </si>
-  <si>
-    <t>Next Greater Element II</t>
-  </si>
-  <si>
-    <t>C049</t>
-  </si>
-  <si>
-    <t>Simplify Path</t>
-  </si>
-  <si>
-    <t>C050</t>
-  </si>
-  <si>
-    <t>미궁 속의 방 (목록 중 6번)</t>
-  </si>
-  <si>
-    <t>C051</t>
-  </si>
-  <si>
-    <t>Wiggle Sort II</t>
-  </si>
-  <si>
-    <t>C052</t>
-  </si>
-  <si>
-    <t>볼링 점수 계산</t>
-  </si>
-  <si>
-    <t>C053</t>
-  </si>
-  <si>
-    <t>Remove All Adjacent Duplicates in String II</t>
-  </si>
-  <si>
-    <t>C054</t>
-  </si>
-  <si>
-    <t>Reverse Substrings Between Each Pair of Parentheses</t>
-  </si>
-  <si>
-    <t>C055</t>
-  </si>
-  <si>
-    <t>진용이네 주차타워</t>
-  </si>
-  <si>
-    <t>C056</t>
-  </si>
-  <si>
-    <t>Reconstruct Original Digits from English</t>
-  </si>
-  <si>
-    <t>C057</t>
-  </si>
-  <si>
-    <t>단어 정렬</t>
-  </si>
-  <si>
-    <t>C058</t>
-  </si>
-  <si>
-    <t>K번째 수</t>
-  </si>
-  <si>
-    <t>C059</t>
-  </si>
-  <si>
-    <t>Spiral Matrix</t>
-  </si>
-  <si>
-    <t>C060</t>
-  </si>
-  <si>
-    <t>Pancake Sorting</t>
-  </si>
-  <si>
-    <t>C061</t>
-  </si>
-  <si>
-    <t>서로 다른 부분 문자열의 개수</t>
-  </si>
-  <si>
-    <t>C062</t>
-  </si>
-  <si>
-    <t>캠퍼스와 도로(1) (목록 중 15번)</t>
-  </si>
-  <si>
-    <t>C063</t>
-  </si>
-  <si>
-    <t>수 찾기</t>
-  </si>
-  <si>
-    <t>C064</t>
-  </si>
-  <si>
-    <t>좋은 수 (목록 중 7번)</t>
-  </si>
-  <si>
-    <t>C065</t>
-  </si>
-  <si>
-    <t>Insertion Sort List</t>
-  </si>
-  <si>
-    <t>C066</t>
-  </si>
-  <si>
-    <t>영화감독 숌</t>
-  </si>
-  <si>
-    <t>C067</t>
-  </si>
-  <si>
-    <t>블랙잭</t>
-  </si>
-  <si>
-    <t>C068</t>
-  </si>
-  <si>
-    <t>덩치</t>
-  </si>
-  <si>
-    <t>C069</t>
-  </si>
-  <si>
-    <t>ATM</t>
-  </si>
-  <si>
-    <t>C070</t>
-  </si>
-  <si>
-    <t>회의실배정</t>
-  </si>
-  <si>
-    <t>C071</t>
-  </si>
-  <si>
-    <t>오르막길</t>
-  </si>
-  <si>
-    <t>C072</t>
-  </si>
-  <si>
-    <t>고득점</t>
-  </si>
-  <si>
-    <t>C073</t>
-  </si>
-  <si>
-    <t>정돈된 배열</t>
-  </si>
-  <si>
-    <t>C074</t>
-  </si>
-  <si>
-    <t>Search in Rotated Sorted Array II</t>
-  </si>
-  <si>
-    <t>C075</t>
-  </si>
-  <si>
-    <t>Search in Rotated Sorted Array</t>
-  </si>
-  <si>
-    <t>C076</t>
-  </si>
-  <si>
-    <t>Container With Most Water</t>
-  </si>
-  <si>
-    <t>C077</t>
-  </si>
-  <si>
-    <t>House Robber</t>
-  </si>
-  <si>
-    <t>C078</t>
-  </si>
-  <si>
-    <t>Uncrossed Lines</t>
-  </si>
-  <si>
-    <t>C079</t>
-  </si>
-  <si>
-    <t>Stone Game</t>
-  </si>
-  <si>
-    <t>C080</t>
-  </si>
-  <si>
-    <t>체스판 다시 칠하기</t>
-  </si>
-  <si>
-    <t>C081</t>
-  </si>
-  <si>
-    <t>Brick Wall</t>
-  </si>
-  <si>
-    <t>C082</t>
-  </si>
-  <si>
-    <t>Top K Frequent Elements</t>
-  </si>
-  <si>
-    <t>C083</t>
-  </si>
-  <si>
-    <t>가르침</t>
-  </si>
-  <si>
-    <t>C084</t>
-  </si>
-  <si>
-    <t>스도쿠</t>
-  </si>
-  <si>
-    <t>C085</t>
-  </si>
-  <si>
-    <t>좋은 수열</t>
-  </si>
-  <si>
-    <t>C086</t>
-  </si>
-  <si>
-    <t>부분수열의 합</t>
-  </si>
-  <si>
-    <t>C087</t>
-  </si>
-  <si>
-    <t>Linked List Cycle II</t>
-  </si>
-  <si>
-    <t>C088</t>
-  </si>
-  <si>
-    <t>Integer to Roman</t>
-  </si>
-  <si>
-    <t>C089</t>
-  </si>
-  <si>
-    <t>Longest Substring Without Repeating Characters</t>
-  </si>
-  <si>
-    <t>C090</t>
-  </si>
-  <si>
-    <t>Word Break</t>
-  </si>
-  <si>
-    <t>D001</t>
-  </si>
-  <si>
-    <t>경재와 대환이의 돌게임</t>
-  </si>
-  <si>
-    <t>D002</t>
-  </si>
-  <si>
-    <t>ACM 호텔</t>
-  </si>
-  <si>
-    <t>D003</t>
-  </si>
-  <si>
-    <t>점프 (목록 중 95번)</t>
-  </si>
-  <si>
-    <t>D004</t>
-  </si>
-  <si>
-    <t>키로거</t>
-  </si>
-  <si>
-    <t>D005</t>
-  </si>
-  <si>
-    <t>듣보잡</t>
-  </si>
-  <si>
-    <t>D006</t>
-  </si>
-  <si>
-    <t>다슬이의 연봉인상</t>
-  </si>
-  <si>
-    <t>D007</t>
-  </si>
-  <si>
-    <t>Median of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>D008</t>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock III</t>
-  </si>
-  <si>
-    <t>D009</t>
-  </si>
-  <si>
-    <t>욕심쟁이 판다</t>
-  </si>
-  <si>
-    <t>D010</t>
-  </si>
-  <si>
-    <t>Wildcard Matching</t>
-  </si>
-  <si>
-    <t>D011</t>
-  </si>
-  <si>
-    <t>First Missing Positive</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2523,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5CABF6-31F5-4BA9-942F-CE4479E1686A}">
   <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2543,19 +2545,19 @@
         <v>801</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2569,19 +2571,19 @@
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2598,19 +2600,19 @@
         <v>801</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2627,19 +2629,19 @@
         <v>801</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M4">
         <v>705</v>
@@ -2656,19 +2658,19 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2681,20 +2683,23 @@
       <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D6">
+        <v>802</v>
+      </c>
       <c r="F6" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2711,19 +2716,19 @@
         <v>714</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2740,19 +2745,19 @@
         <v>714</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2765,20 +2770,23 @@
       <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D9">
+        <v>802</v>
+      </c>
       <c r="F9" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2792,19 +2800,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2817,20 +2825,23 @@
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D11">
+        <v>802</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2843,20 +2854,23 @@
       <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D12">
+        <v>802</v>
+      </c>
       <c r="F12" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2873,19 +2887,19 @@
         <v>801</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2898,20 +2912,23 @@
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D14">
+        <v>802</v>
+      </c>
       <c r="F14" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2928,19 +2945,19 @@
         <v>715</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2954,19 +2971,19 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="36" thickBot="1" x14ac:dyDescent="0.35">
@@ -2983,19 +3000,19 @@
         <v>706</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -3012,19 +3029,19 @@
         <v>709</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3041,19 +3058,19 @@
         <v>710</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3070,19 +3087,19 @@
         <v>717</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3099,19 +3116,19 @@
         <v>717</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3128,19 +3145,19 @@
         <v>718</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3157,19 +3174,19 @@
         <v>801</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3186,19 +3203,19 @@
         <v>801</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3215,19 +3232,19 @@
         <v>801</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3241,19 +3258,19 @@
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3267,19 +3284,19 @@
         <v>2</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3296,19 +3313,19 @@
         <v>801</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3325,19 +3342,19 @@
         <v>725</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M29">
         <v>705</v>
@@ -3354,19 +3371,19 @@
         <v>2</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3380,19 +3397,19 @@
         <v>2</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3409,19 +3426,19 @@
         <v>801</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M32">
         <v>705</v>
@@ -3441,19 +3458,19 @@
         <v>725</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3470,19 +3487,19 @@
         <v>725</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M34">
         <v>705</v>
@@ -3499,19 +3516,19 @@
         <v>2</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="36" thickBot="1" x14ac:dyDescent="0.35">
@@ -3525,19 +3542,19 @@
         <v>2</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3550,20 +3567,23 @@
       <c r="C37" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D37">
+        <v>802</v>
+      </c>
       <c r="F37" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3576,20 +3596,23 @@
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D38">
+        <v>802</v>
+      </c>
       <c r="F38" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3602,20 +3625,23 @@
       <c r="C39" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D39">
+        <v>802</v>
+      </c>
       <c r="F39" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3623,137 +3649,149 @@
         <v>79</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>80</v>
+        <v>675</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D40">
+        <v>802</v>
+      </c>
       <c r="F40" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="C41" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C42" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D42">
+        <v>802</v>
+      </c>
       <c r="F42" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="C43" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D43">
+        <v>802</v>
+      </c>
       <c r="F43" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>88</v>
+        <v>676</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D44">
+        <v>802</v>
+      </c>
       <c r="F44" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>2</v>
@@ -3762,27 +3800,27 @@
         <v>705</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>2</v>
@@ -3791,27 +3829,27 @@
         <v>725</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>2</v>
@@ -3820,27 +3858,27 @@
         <v>725</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>2</v>
@@ -3849,53 +3887,56 @@
         <v>705</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D49">
+        <v>801</v>
+      </c>
       <c r="F49" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>2</v>
@@ -3904,27 +3945,27 @@
         <v>729</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>2</v>
@@ -3933,27 +3974,27 @@
         <v>705</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>2</v>
@@ -3962,27 +4003,27 @@
         <v>729</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>2</v>
@@ -3991,339 +4032,345 @@
         <v>729</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="36" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D60">
+        <v>803</v>
+      </c>
       <c r="F60" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D63">
+        <v>803</v>
+      </c>
       <c r="F63" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>2</v>
@@ -4332,45 +4379,45 @@
         <v>729</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="M67">
         <v>705</v>
@@ -4378,10 +4425,10 @@
     </row>
     <row r="68" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>2</v>
@@ -4390,19 +4437,19 @@
         <v>801</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="M68">
         <v>705</v>
@@ -4410,10 +4457,10 @@
     </row>
     <row r="69" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>2</v>
@@ -4422,27 +4469,27 @@
         <v>730</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>2</v>
@@ -4451,57 +4498,57 @@
         <v>730</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="Q71">
         <v>705</v>
@@ -4509,170 +4556,170 @@
     </row>
     <row r="72" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>2</v>
@@ -4681,132 +4728,132 @@
         <v>730</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M80">
         <v>705</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>2</v>
@@ -4815,27 +4862,27 @@
         <v>730</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>2</v>
@@ -4844,27 +4891,27 @@
         <v>730</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>2</v>
@@ -4873,27 +4920,27 @@
         <v>730</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>2</v>
@@ -4902,27 +4949,27 @@
         <v>801</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>2</v>
@@ -4931,27 +4978,27 @@
         <v>731</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>2</v>
@@ -4960,140 +5007,140 @@
         <v>731</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>2</v>
@@ -5101,19 +5148,19 @@
     </row>
     <row r="92" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>2</v>
@@ -5121,19 +5168,19 @@
     </row>
     <row r="93" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>2</v>
@@ -5141,10 +5188,10 @@
     </row>
     <row r="94" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>2</v>
@@ -5153,10 +5200,10 @@
         <v>705</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>2</v>
@@ -5164,19 +5211,19 @@
     </row>
     <row r="95" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>2</v>
@@ -5184,19 +5231,19 @@
     </row>
     <row r="96" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>2</v>
@@ -5204,19 +5251,19 @@
     </row>
     <row r="97" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>2</v>
@@ -5224,19 +5271,19 @@
     </row>
     <row r="98" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>2</v>
@@ -5244,19 +5291,19 @@
     </row>
     <row r="99" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>2</v>
@@ -5264,19 +5311,19 @@
     </row>
     <row r="100" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>2</v>
@@ -5284,19 +5331,19 @@
     </row>
     <row r="101" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>2</v>
@@ -5304,19 +5351,19 @@
     </row>
     <row r="102" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>2</v>
@@ -5324,19 +5371,19 @@
     </row>
     <row r="103" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>2</v>
@@ -5344,10 +5391,10 @@
     </row>
     <row r="104" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>2</v>
@@ -5355,10 +5402,10 @@
     </row>
     <row r="105" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>2</v>
@@ -5369,10 +5416,10 @@
     </row>
     <row r="106" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>2</v>
@@ -5383,10 +5430,10 @@
     </row>
     <row r="107" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>2</v>
@@ -5397,10 +5444,10 @@
     </row>
     <row r="108" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>2</v>
@@ -5411,10 +5458,10 @@
     </row>
     <row r="109" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>2</v>
@@ -5422,10 +5469,10 @@
     </row>
     <row r="110" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>2</v>
@@ -5436,10 +5483,10 @@
     </row>
     <row r="111" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>2</v>
@@ -5450,10 +5497,10 @@
     </row>
     <row r="112" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>2</v>
@@ -5464,10 +5511,10 @@
     </row>
     <row r="113" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>2</v>
@@ -5475,10 +5522,10 @@
     </row>
     <row r="114" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>2</v>
@@ -5486,10 +5533,10 @@
     </row>
     <row r="115" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>2</v>
@@ -5497,10 +5544,10 @@
     </row>
     <row r="116" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>2</v>
@@ -5508,10 +5555,10 @@
     </row>
     <row r="117" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>2</v>
@@ -5519,10 +5566,10 @@
     </row>
     <row r="118" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>2</v>
@@ -5530,10 +5577,10 @@
     </row>
     <row r="119" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>2</v>
@@ -5541,10 +5588,10 @@
     </row>
     <row r="120" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>2</v>
@@ -5552,10 +5599,10 @@
     </row>
     <row r="121" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>2</v>
@@ -5563,10 +5610,10 @@
     </row>
     <row r="122" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>2</v>
@@ -5574,10 +5621,10 @@
     </row>
     <row r="123" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>2</v>
@@ -5585,10 +5632,10 @@
     </row>
     <row r="124" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>2</v>
@@ -5599,10 +5646,10 @@
     </row>
     <row r="125" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>2</v>
@@ -5613,10 +5660,10 @@
     </row>
     <row r="126" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>2</v>
@@ -5627,10 +5674,10 @@
     </row>
     <row r="127" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>2</v>
@@ -5641,10 +5688,10 @@
     </row>
     <row r="128" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>2</v>
@@ -5655,10 +5702,10 @@
     </row>
     <row r="129" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>2</v>
@@ -5669,10 +5716,10 @@
     </row>
     <row r="130" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>2</v>
@@ -5683,10 +5730,10 @@
     </row>
     <row r="131" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>2</v>
@@ -5697,10 +5744,10 @@
     </row>
     <row r="132" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>2</v>
@@ -5711,10 +5758,10 @@
     </row>
     <row r="133" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>2</v>
@@ -5722,10 +5769,10 @@
     </row>
     <row r="134" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>2</v>
@@ -5744,6 +5791,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007745BF2952DAD049A2621A067C8277B7" ma:contentTypeVersion="5" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="378f6c43abaaf72fcba69b6eb9f69a79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3b7a1947-f9fd-4834-88a6-b81ee9c92e59" xmlns:ns4="0579aae6-6b8d-4c65-aec4-ef6fce64dfed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb81b565963c5e4436498a5ac99ae73c" ns3:_="" ns4:_="">
     <xsd:import namespace="3b7a1947-f9fd-4834-88a6-b81ee9c92e59"/>
@@ -5914,15 +5970,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5930,6 +5977,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62AD2D07-5AEB-4E55-97AA-919C17AFDF89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DB90020-35DC-4849-BF53-9395E571A3B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5944,14 +5999,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62AD2D07-5AEB-4E55-97AA-919C17AFDF89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
